--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/ValueSet-jp-procedure-outcome-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/ValueSet-jp-procedure-outcome-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:16:32+00:00</t>
+    <t>2022-08-08T12:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/ValueSet-jp-procedure-outcome-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/ValueSet-jp-procedure-outcome-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:55:58+00:00</t>
+    <t>2022-08-09T09:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
